--- a/examples/tables/artifact/script/InfiniteTable.xlsx
+++ b/examples/tables/artifact/script/InfiniteTable.xlsx
@@ -1,58 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/tables/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1AA961-D885-9A4F-83E5-EF7723C04383}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D79C9F01-F1AF-8B4F-B692-7B96B1680A0C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21140" windowWidth="38400" xWindow="220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="480"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="DataTables" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="583">
   <si>
     <t>description</t>
   </si>
@@ -1810,12 +1811,31 @@
   <si>
     <t>Clean Up</t>
   </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1892,8 +1912,210 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1912,8 +2134,314 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -1951,148 +2479,896 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="69">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="15" fontId="15" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="12" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2156,7 +3432,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2181,10 +3457,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2219,7 +3495,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2254,7 +3530,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2348,21 +3624,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2379,7 +3655,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2431,26 +3707,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD134"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF135"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2464,85 +3740,88 @@
         <v>472</v>
       </c>
       <c r="E1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>344</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>330</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>503</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>473</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>193</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>51</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>236</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>52</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>392</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>408</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>409</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>353</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>393</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>410</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>367</v>
       </c>
@@ -2556,85 +3835,88 @@
         <v>474</v>
       </c>
       <c r="E2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>71</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>73</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>446</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>78</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>457</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>312</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>380</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>431</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>507</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>484</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>413</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>426</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>250</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>214</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>394</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>415</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>416</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>377</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>403</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>95</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>168</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>173</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>180</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>428</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>451</v>
       </c>
@@ -2647,80 +3929,80 @@
       <c r="D3" t="s">
         <v>504</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>454</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>361</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>87</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>48</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>479</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>346</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>338</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>331</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>85</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>508</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>485</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>427</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>237</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>215</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>395</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>417</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>378</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>404</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>96</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>169</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>174</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>360</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>181</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>472</v>
       </c>
@@ -2730,82 +4012,82 @@
       <c r="D4" t="s">
         <v>475</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>72</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>383</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>447</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>480</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>347</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>235</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>332</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>509</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>486</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>238</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>216</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>396</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>418</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>354</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>405</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>350</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>170</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>175</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>181</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>420</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>577</v>
       </c>
       <c r="B5" t="s">
         <v>371</v>
@@ -2813,73 +4095,73 @@
       <c r="D5" t="s">
         <v>476</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>455</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>429</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>541</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>456</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>522</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>348</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>458</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>86</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>510</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>239</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>217</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>397</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>419</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>355</v>
       </c>
-      <c r="Y5" t="s">
-        <v>351</v>
-      </c>
       <c r="Z5" t="s">
+        <v>581</v>
+      </c>
+      <c r="AA5" t="s">
         <v>171</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>176</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>182</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>421</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>372</v>
@@ -2887,1541 +4169,1549 @@
       <c r="D6" t="s">
         <v>477</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>478</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>333</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>444</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>345</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>71</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>511</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>240</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>387</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>398</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>357</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>97</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>441</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>177</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>183</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>422</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>373</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>221</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>384</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>443</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>531</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>312</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>512</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>32</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>241</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>414</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>399</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>356</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>98</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>442</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>178</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>184</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>423</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>374</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>315</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>362</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>325</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>481</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>513</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>90</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>242</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>400</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>358</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>99</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>172</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>179</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>185</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>424</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>375</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>363</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>326</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>79</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>34</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>514</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>91</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>243</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>401</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>359</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>206</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>186</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>312</v>
+      </c>
+      <c r="H10" t="s">
+        <v>303</v>
+      </c>
+      <c r="I10" t="s">
+        <v>448</v>
+      </c>
+      <c r="L10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" t="s">
+        <v>515</v>
+      </c>
+      <c r="R10" t="s">
+        <v>433</v>
+      </c>
+      <c r="S10" t="s">
+        <v>244</v>
+      </c>
+      <c r="U10" t="s">
+        <v>402</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>344</v>
       </c>
-      <c r="E10" t="s">
-        <v>312</v>
-      </c>
-      <c r="G10" t="s">
-        <v>303</v>
-      </c>
-      <c r="H10" t="s">
-        <v>448</v>
-      </c>
-      <c r="K10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>433</v>
-      </c>
-      <c r="R10" t="s">
-        <v>244</v>
-      </c>
-      <c r="T10" t="s">
-        <v>402</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>254</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="F11" t="s">
+        <v>580</v>
+      </c>
+      <c r="H11" t="s">
+        <v>349</v>
+      </c>
+      <c r="I11" t="s">
+        <v>319</v>
+      </c>
+      <c r="L11" t="s">
+        <v>482</v>
+      </c>
+      <c r="N11" t="s">
+        <v>467</v>
+      </c>
+      <c r="O11" t="s">
+        <v>516</v>
+      </c>
+      <c r="R11" t="s">
+        <v>92</v>
+      </c>
+      <c r="S11" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="E11" t="s">
-        <v>252</v>
-      </c>
-      <c r="G11" t="s">
-        <v>349</v>
-      </c>
-      <c r="H11" t="s">
-        <v>319</v>
-      </c>
-      <c r="K11" t="s">
-        <v>482</v>
-      </c>
-      <c r="M11" t="s">
-        <v>467</v>
-      </c>
-      <c r="N11" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>92</v>
-      </c>
-      <c r="R11" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>256</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="F12" t="s">
+        <v>316</v>
+      </c>
+      <c r="H12" t="s">
+        <v>271</v>
+      </c>
+      <c r="I12" t="s">
+        <v>320</v>
+      </c>
+      <c r="L12" t="s">
+        <v>386</v>
+      </c>
+      <c r="N12" t="s">
+        <v>533</v>
+      </c>
+      <c r="O12" t="s">
+        <v>517</v>
+      </c>
+      <c r="R12" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
         <v>330</v>
       </c>
-      <c r="E12" t="s">
-        <v>316</v>
-      </c>
-      <c r="G12" t="s">
-        <v>271</v>
-      </c>
-      <c r="H12" t="s">
-        <v>320</v>
-      </c>
-      <c r="K12" t="s">
-        <v>386</v>
-      </c>
-      <c r="M12" t="s">
-        <v>533</v>
-      </c>
-      <c r="N12" t="s">
-        <v>517</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>40</v>
-      </c>
-      <c r="R12" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="F13" t="s">
+        <v>338</v>
+      </c>
+      <c r="H13" t="s">
+        <v>260</v>
+      </c>
+      <c r="I13" t="s">
+        <v>321</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" t="s">
+        <v>432</v>
+      </c>
+      <c r="R13" t="s">
+        <v>93</v>
+      </c>
+      <c r="S13" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
-        <v>338</v>
-      </c>
-      <c r="G13" t="s">
-        <v>260</v>
-      </c>
-      <c r="H13" t="s">
-        <v>321</v>
-      </c>
-      <c r="K13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>93</v>
-      </c>
-      <c r="R13" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>323</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s">
+        <v>313</v>
+      </c>
+      <c r="I14" t="s">
+        <v>322</v>
+      </c>
+      <c r="L14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" t="s">
+        <v>468</v>
+      </c>
+      <c r="R14" t="s">
+        <v>94</v>
+      </c>
+      <c r="S14" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
         <v>503</v>
       </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>313</v>
-      </c>
-      <c r="H14" t="s">
-        <v>322</v>
-      </c>
-      <c r="K14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>94</v>
-      </c>
-      <c r="R14" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" t="s">
+        <v>261</v>
+      </c>
+      <c r="L15" t="s">
+        <v>483</v>
+      </c>
+      <c r="N15" t="s">
+        <v>38</v>
+      </c>
+      <c r="R15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S15" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
         <v>473</v>
       </c>
-      <c r="E15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" t="s">
-        <v>261</v>
-      </c>
-      <c r="K15" t="s">
-        <v>483</v>
-      </c>
-      <c r="M15" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R15" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="F16" t="s">
+        <v>381</v>
+      </c>
+      <c r="H16" t="s">
+        <v>262</v>
+      </c>
+      <c r="L16" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" t="s">
+        <v>537</v>
+      </c>
+      <c r="R16" t="s">
+        <v>488</v>
+      </c>
+      <c r="S16" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
         <v>193</v>
       </c>
-      <c r="E16" t="s">
-        <v>381</v>
-      </c>
-      <c r="G16" t="s">
-        <v>262</v>
-      </c>
-      <c r="K16" t="s">
-        <v>80</v>
-      </c>
-      <c r="M16" t="s">
-        <v>537</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>488</v>
-      </c>
-      <c r="R16" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>192</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="F17" t="s">
+        <v>382</v>
+      </c>
+      <c r="H17" t="s">
+        <v>314</v>
+      </c>
+      <c r="L17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>489</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
         <v>51</v>
       </c>
-      <c r="E17" t="s">
-        <v>382</v>
-      </c>
-      <c r="G17" t="s">
-        <v>314</v>
-      </c>
-      <c r="K17" t="s">
-        <v>81</v>
-      </c>
-      <c r="M17" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>489</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>463</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="F18" t="s">
+        <v>411</v>
+      </c>
+      <c r="H18" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" t="s">
+        <v>459</v>
+      </c>
+      <c r="N18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
         <v>236</v>
       </c>
-      <c r="E18" t="s">
-        <v>411</v>
-      </c>
-      <c r="G18" t="s">
-        <v>88</v>
-      </c>
-      <c r="K18" t="s">
-        <v>459</v>
-      </c>
-      <c r="M18" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
         <v>52</v>
       </c>
-      <c r="E19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" t="s">
-        <v>89</v>
-      </c>
-      <c r="K19" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" t="s">
+        <v>293</v>
+      </c>
+      <c r="L20" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>392</v>
       </c>
-      <c r="E20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" t="s">
-        <v>293</v>
-      </c>
-      <c r="K20" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="F21" t="s">
+        <v>253</v>
+      </c>
+      <c r="H21" t="s">
+        <v>294</v>
+      </c>
+      <c r="L21" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
         <v>408</v>
       </c>
-      <c r="E21" t="s">
-        <v>253</v>
-      </c>
-      <c r="G21" t="s">
-        <v>294</v>
-      </c>
-      <c r="K21" t="s">
-        <v>376</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="F22" t="s">
+        <v>534</v>
+      </c>
+      <c r="H22" t="s">
+        <v>295</v>
+      </c>
+      <c r="L22" t="s">
+        <v>466</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>490</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
         <v>409</v>
       </c>
-      <c r="E22" t="s">
-        <v>534</v>
-      </c>
-      <c r="G22" t="s">
-        <v>295</v>
-      </c>
-      <c r="K22" t="s">
-        <v>466</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>490</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" t="s">
+        <v>296</v>
+      </c>
+      <c r="L23" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
         <v>353</v>
       </c>
-      <c r="E23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" t="s">
-        <v>296</v>
-      </c>
-      <c r="K23" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="F24" t="s">
+        <v>318</v>
+      </c>
+      <c r="H24" t="s">
+        <v>287</v>
+      </c>
+      <c r="L24" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>538</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
         <v>393</v>
       </c>
-      <c r="E24" t="s">
-        <v>318</v>
-      </c>
-      <c r="G24" t="s">
-        <v>287</v>
-      </c>
-      <c r="K24" t="s">
-        <v>388</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>538</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="F25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" t="s">
+        <v>276</v>
+      </c>
+      <c r="L25" t="s">
+        <v>520</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
         <v>53</v>
       </c>
-      <c r="E25" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" t="s">
-        <v>276</v>
-      </c>
-      <c r="K25" t="s">
-        <v>520</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="F26" t="s">
+        <v>445</v>
+      </c>
+      <c r="H26" t="s">
+        <v>75</v>
+      </c>
+      <c r="L26" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="E26" t="s">
-        <v>445</v>
-      </c>
-      <c r="G26" t="s">
-        <v>75</v>
-      </c>
-      <c r="K26" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="F27" t="s">
+        <v>222</v>
+      </c>
+      <c r="H27" t="s">
+        <v>279</v>
+      </c>
+      <c r="L27" t="s">
+        <v>430</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
         <v>55</v>
       </c>
-      <c r="E27" t="s">
-        <v>222</v>
-      </c>
-      <c r="G27" t="s">
-        <v>279</v>
-      </c>
-      <c r="K27" t="s">
-        <v>430</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="F28" t="s">
+        <v>223</v>
+      </c>
+      <c r="H28" t="s">
+        <v>263</v>
+      </c>
+      <c r="L28" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>56</v>
       </c>
-      <c r="E28" t="s">
-        <v>223</v>
-      </c>
-      <c r="G28" t="s">
-        <v>263</v>
-      </c>
-      <c r="K28" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="F29" t="s">
+        <v>464</v>
+      </c>
+      <c r="H29" t="s">
+        <v>280</v>
+      </c>
+      <c r="L29" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
         <v>410</v>
       </c>
-      <c r="E29" t="s">
-        <v>464</v>
-      </c>
-      <c r="G29" t="s">
-        <v>280</v>
-      </c>
-      <c r="K29" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="F30" t="s">
+        <v>465</v>
+      </c>
+      <c r="H30" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>224</v>
       </c>
-      <c r="E30" t="s">
-        <v>465</v>
-      </c>
-      <c r="G30" t="s">
-        <v>281</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>412</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>213</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="E32" t="s">
+    <row r="32">
+      <c r="F32" t="s">
         <v>63</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>272</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="5:25" x14ac:dyDescent="0.2">
-      <c r="E33" t="s">
+    <row r="33">
+      <c r="F33" t="s">
         <v>64</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>282</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="5:25" x14ac:dyDescent="0.2">
-      <c r="E34" t="s">
+    <row r="34">
+      <c r="F34" t="s">
         <v>65</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>505</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="35" spans="5:25" x14ac:dyDescent="0.2">
-      <c r="E35" t="s">
+    <row r="35">
+      <c r="F35" t="s">
         <v>66</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>257</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="5:25" x14ac:dyDescent="0.2">
-      <c r="E36" t="s">
+    <row r="36">
+      <c r="F36" t="s">
         <v>67</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>327</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="5:25" x14ac:dyDescent="0.2">
-      <c r="E37" t="s">
+    <row r="37">
+      <c r="F37" t="s">
         <v>68</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>304</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="5:25" x14ac:dyDescent="0.2">
-      <c r="E38" t="s">
+    <row r="38">
+      <c r="F38" t="s">
         <v>69</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>258</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="5:25" x14ac:dyDescent="0.2">
-      <c r="E39" t="s">
+    <row r="39">
+      <c r="F39" t="s">
         <v>70</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>305</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="40" spans="5:25" x14ac:dyDescent="0.2">
-      <c r="G40" t="s">
+    <row r="40">
+      <c r="H40" t="s">
         <v>264</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="41" spans="5:25" x14ac:dyDescent="0.2">
-      <c r="G41" t="s">
+    <row r="41">
+      <c r="H41" t="s">
         <v>77</v>
       </c>
-      <c r="Y41" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="42" spans="5:25" x14ac:dyDescent="0.2">
-      <c r="G42" t="s">
+      <c r="Z41" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="H42" t="s">
         <v>209</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="5:25" x14ac:dyDescent="0.2">
-      <c r="G43" t="s">
+    <row r="43">
+      <c r="H43" t="s">
         <v>535</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="5:25" x14ac:dyDescent="0.2">
-      <c r="G44" t="s">
+    <row r="44">
+      <c r="H44" t="s">
         <v>286</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="5:25" x14ac:dyDescent="0.2">
-      <c r="G45" t="s">
+    <row r="45">
+      <c r="H45" t="s">
         <v>297</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="5:25" x14ac:dyDescent="0.2">
-      <c r="G46" t="s">
+    <row r="46">
+      <c r="H46" t="s">
         <v>298</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="5:25" x14ac:dyDescent="0.2">
-      <c r="G47" t="s">
+    <row r="47">
+      <c r="H47" t="s">
         <v>340</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="5:25" x14ac:dyDescent="0.2">
-      <c r="G48" t="s">
+    <row r="48">
+      <c r="H48" t="s">
         <v>339</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G49" t="s">
+    <row r="49">
+      <c r="H49" t="s">
         <v>208</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="50" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G50" t="s">
+    <row r="50">
+      <c r="H50" t="s">
         <v>317</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="51" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G51" t="s">
+    <row r="51">
+      <c r="H51" t="s">
         <v>336</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G52" t="s">
+    <row r="52">
+      <c r="H52" t="s">
         <v>364</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="53" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G53" t="s">
+    <row r="53">
+      <c r="H53" t="s">
         <v>299</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G54" t="s">
+    <row r="54">
+      <c r="H54" t="s">
         <v>352</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G55" t="s">
+    <row r="55">
+      <c r="H55" t="s">
         <v>328</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G56" t="s">
+    <row r="56">
+      <c r="H56" t="s">
         <v>265</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="57" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G57" t="s">
+    <row r="57">
+      <c r="H57" t="s">
         <v>289</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="58" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G58" t="s">
+    <row r="58">
+      <c r="H58" t="s">
         <v>290</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G59" t="s">
+    <row r="59">
+      <c r="H59" t="s">
         <v>536</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="60" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G60" t="s">
+    <row r="60">
+      <c r="H60" t="s">
         <v>291</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="61" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G61" t="s">
+    <row r="61">
+      <c r="H61" t="s">
         <v>300</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G62" t="s">
+    <row r="62">
+      <c r="H62" t="s">
         <v>309</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G63" t="s">
+    <row r="63">
+      <c r="H63" t="s">
         <v>334</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G64" t="s">
+    <row r="64">
+      <c r="H64" t="s">
         <v>306</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G65" t="s">
+    <row r="65">
+      <c r="H65" t="s">
         <v>307</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G66" t="s">
+    <row r="66">
+      <c r="H66" t="s">
         <v>365</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="67" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G67" t="s">
+    <row r="67">
+      <c r="H67" t="s">
         <v>366</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G68" t="s">
+    <row r="68">
+      <c r="H68" t="s">
         <v>342</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="69" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G69" t="s">
+    <row r="69">
+      <c r="H69" t="s">
         <v>310</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="70" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G70" t="s">
+    <row r="70">
+      <c r="H70" t="s">
         <v>266</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="71" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G71" t="s">
+    <row r="71">
+      <c r="H71" t="s">
         <v>521</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="72" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G72" t="s">
+    <row r="72">
+      <c r="H72" t="s">
         <v>311</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="73" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G73" t="s">
+    <row r="73">
+      <c r="H73" t="s">
         <v>406</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G74" t="s">
+    <row r="74">
+      <c r="H74" t="s">
         <v>301</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G75" t="s">
+    <row r="75">
+      <c r="H75" t="s">
         <v>407</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G76" t="s">
+    <row r="76">
+      <c r="H76" t="s">
         <v>259</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G77" t="s">
+    <row r="77">
+      <c r="H77" t="s">
         <v>506</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="78" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G78" t="s">
+    <row r="78">
+      <c r="H78" t="s">
         <v>341</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="79" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G79" t="s">
+    <row r="79">
+      <c r="H79" t="s">
         <v>277</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="80" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G80" t="s">
+    <row r="80">
+      <c r="H80" t="s">
         <v>283</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="81" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G81" t="s">
+    <row r="81">
+      <c r="H81" t="s">
         <v>288</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G82" t="s">
+    <row r="82">
+      <c r="H82" t="s">
         <v>425</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G83" t="s">
+    <row r="83">
+      <c r="H83" t="s">
         <v>329</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G84" t="s">
+    <row r="84">
+      <c r="H84" t="s">
         <v>267</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="85" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G85" t="s">
+    <row r="85">
+      <c r="H85" t="s">
         <v>278</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G86" t="s">
+    <row r="86">
+      <c r="H86" t="s">
         <v>284</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G87" t="s">
+    <row r="87">
+      <c r="H87" t="s">
         <v>273</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G88" t="s">
+    <row r="88">
+      <c r="H88" t="s">
         <v>524</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="89" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G89" t="s">
+    <row r="89">
+      <c r="H89" t="s">
         <v>268</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G90" t="s">
+    <row r="90">
+      <c r="H90" t="s">
         <v>285</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="91" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G91" t="s">
+    <row r="91">
+      <c r="H91" t="s">
         <v>269</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G92" t="s">
+    <row r="92">
+      <c r="H92" t="s">
         <v>270</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="93" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G93" t="s">
+    <row r="93">
+      <c r="H93" t="s">
         <v>302</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="94" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G94" t="s">
+    <row r="94">
+      <c r="H94" t="s">
         <v>308</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="95" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G95" t="s">
+    <row r="95">
+      <c r="H95" t="s">
         <v>292</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="96" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G96" t="s">
+    <row r="96">
+      <c r="H96" t="s">
         <v>337</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G97" t="s">
+    <row r="97">
+      <c r="H97" t="s">
         <v>274</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G98" t="s">
+    <row r="98">
+      <c r="H98" t="s">
         <v>275</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="99" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y99" t="s">
+    <row r="99">
+      <c r="Z99" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="100" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y100" t="s">
+    <row r="100">
+      <c r="Z100" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y101" t="s">
+    <row r="101">
+      <c r="Z101" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="102" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y102" t="s">
+    <row r="102">
+      <c r="Z102" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y103" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y104" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="105" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y105" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="106" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y106" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="107" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y107" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="108" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="109" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="110" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="111" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="112" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="113" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="114" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="116" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="117" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="118" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="119" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="120" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="121" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="123" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="124" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="125" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="126" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="127" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="128" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="129" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="132" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="133" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="134" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>167</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O304"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="44.1640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="64.6640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="49.6640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="24.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="34.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="44.1640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="10" width="64.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="10" width="49.6640625" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="10" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -4452,7 +5742,7 @@
       <c r="N1" s="33"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>543</v>
       </c>
@@ -4473,7 +5763,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -4490,7 +5780,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>218</v>
       </c>
@@ -4535,7 +5825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>544</v>
       </c>
@@ -4560,7 +5850,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
         <v>550</v>
@@ -4587,7 +5877,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
         <v>551</v>
@@ -4612,7 +5902,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row ht="64" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>554</v>
       </c>
@@ -4641,7 +5931,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13" t="s">
@@ -4666,7 +5956,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>556</v>
       </c>
@@ -4693,7 +5983,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
@@ -4720,7 +6010,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row ht="176" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>575</v>
       </c>
@@ -4747,7 +6037,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13" t="s">
@@ -4772,7 +6062,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
@@ -4797,7 +6087,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row ht="30" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5" t="s">
         <v>572</v>
@@ -4824,7 +6114,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row ht="112" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13" t="s">
@@ -4851,7 +6141,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
         <v>576</v>
       </c>
@@ -4878,7 +6168,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -4895,7 +6185,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -4912,7 +6202,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -4929,7 +6219,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -4946,7 +6236,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -4963,7 +6253,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -4980,7 +6270,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -4997,7 +6287,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -5014,7 +6304,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -5031,7 +6321,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -5048,7 +6338,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13"/>
@@ -5065,7 +6355,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -5082,7 +6372,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -5099,7 +6389,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -5116,7 +6406,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="8"/>
       <c r="C32" s="13"/>
@@ -5133,7 +6423,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -5150,7 +6440,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -5167,7 +6457,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -5184,7 +6474,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -5201,7 +6491,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -5218,7 +6508,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -5235,7 +6525,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -5252,7 +6542,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -5269,7 +6559,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -5286,7 +6576,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -5303,7 +6593,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -5320,7 +6610,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -5337,7 +6627,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -5354,7 +6644,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -5371,7 +6661,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -5388,7 +6678,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -5405,7 +6695,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -5422,7 +6712,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -5439,7 +6729,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -5456,7 +6746,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -5473,7 +6763,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -5490,7 +6780,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -5507,7 +6797,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -5524,7 +6814,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -5541,7 +6831,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -5558,7 +6848,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -5575,7 +6865,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -5592,7 +6882,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -5609,7 +6899,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -5626,7 +6916,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -5643,7 +6933,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -5660,7 +6950,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -5677,7 +6967,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -5694,7 +6984,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -5711,7 +7001,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -5728,7 +7018,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -5745,7 +7035,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -5762,7 +7052,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -5779,7 +7069,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -5796,7 +7086,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -5813,7 +7103,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -5830,7 +7120,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -5847,7 +7137,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -5864,7 +7154,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -5881,7 +7171,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -5898,7 +7188,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -5915,7 +7205,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -5932,7 +7222,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -5949,7 +7239,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -5966,7 +7256,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -5983,7 +7273,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -6000,7 +7290,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -6017,7 +7307,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -6034,7 +7324,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -6051,7 +7341,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -6068,7 +7358,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -6085,7 +7375,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -6102,7 +7392,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -6119,7 +7409,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -6136,7 +7426,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -6153,7 +7443,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -6170,7 +7460,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -6187,7 +7477,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -6204,7 +7494,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -6221,7 +7511,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -6238,7 +7528,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -6255,7 +7545,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -6272,7 +7562,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -6289,7 +7579,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -6306,7 +7596,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -6323,7 +7613,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -6340,7 +7630,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -6357,7 +7647,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -6374,7 +7664,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -6391,7 +7681,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -6408,7 +7698,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -6425,7 +7715,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -6442,7 +7732,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -6459,7 +7749,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -6476,7 +7766,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -6493,7 +7783,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -6510,7 +7800,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -6527,7 +7817,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -6544,7 +7834,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -6561,7 +7851,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -6578,7 +7868,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -6595,7 +7885,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -6612,7 +7902,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -6629,7 +7919,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -6646,7 +7936,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -6663,7 +7953,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -6680,7 +7970,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -6697,7 +7987,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -6714,7 +8004,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -6731,7 +8021,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -6748,7 +8038,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -6765,7 +8055,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -6782,7 +8072,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -6799,7 +8089,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -6816,7 +8106,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -6833,7 +8123,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -6850,7 +8140,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -6867,7 +8157,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -6884,7 +8174,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -6901,7 +8191,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -6918,7 +8208,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -6935,7 +8225,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -6952,7 +8242,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -6969,7 +8259,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -6986,7 +8276,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -7003,7 +8293,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -7020,7 +8310,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -7037,7 +8327,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -7054,7 +8344,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -7071,7 +8361,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -7088,7 +8378,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -7105,7 +8395,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -7122,7 +8412,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -7139,7 +8429,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -7156,7 +8446,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -7173,7 +8463,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -7190,7 +8480,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -7207,7 +8497,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -7224,7 +8514,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -7241,7 +8531,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -7258,7 +8548,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -7275,7 +8565,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -7292,7 +8582,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -7309,7 +8599,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -7326,7 +8616,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -7343,7 +8633,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -7360,7 +8650,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -7377,7 +8667,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -7394,7 +8684,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -7411,7 +8701,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -7428,7 +8718,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -7445,7 +8735,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -7462,7 +8752,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -7479,7 +8769,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -7496,7 +8786,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -7513,7 +8803,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -7530,7 +8820,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -7547,7 +8837,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -7564,7 +8854,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -7581,7 +8871,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -7598,7 +8888,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -7615,7 +8905,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -7632,7 +8922,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -7649,7 +8939,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -7666,7 +8956,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -7683,7 +8973,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -7700,7 +8990,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -7717,7 +9007,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -7734,7 +9024,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -7751,7 +9041,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -7768,7 +9058,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -7785,7 +9075,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -7802,7 +9092,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -7819,7 +9109,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -7836,7 +9126,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -7853,7 +9143,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -7870,7 +9160,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -7887,7 +9177,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -7904,7 +9194,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -7921,7 +9211,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -7938,7 +9228,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -7955,7 +9245,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -7972,7 +9262,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -7989,7 +9279,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -8006,7 +9296,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -8023,7 +9313,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -8040,7 +9330,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -8057,7 +9347,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -8074,7 +9364,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -8091,7 +9381,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -8108,7 +9398,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -8125,7 +9415,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -8142,7 +9432,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -8159,7 +9449,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -8176,7 +9466,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -8193,7 +9483,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -8210,7 +9500,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -8227,7 +9517,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -8244,7 +9534,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -8261,7 +9551,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -8278,7 +9568,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -8295,7 +9585,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -8312,7 +9602,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -8329,7 +9619,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -8346,7 +9636,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -8363,7 +9653,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -8380,7 +9670,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -8397,7 +9687,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -8414,7 +9704,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -8431,7 +9721,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -8448,7 +9738,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -8465,7 +9755,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -8482,7 +9772,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -8499,7 +9789,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -8516,7 +9806,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -8533,7 +9823,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -8550,7 +9840,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -8567,7 +9857,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -8584,7 +9874,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -8601,7 +9891,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -8618,7 +9908,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -8635,7 +9925,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -8652,7 +9942,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -8669,7 +9959,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -8686,7 +9976,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -8703,7 +9993,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -8720,7 +10010,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -8737,7 +10027,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -8754,7 +10044,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -8771,7 +10061,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -8788,7 +10078,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -8805,7 +10095,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -8822,7 +10112,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -8839,7 +10129,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -8856,7 +10146,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -8873,7 +10163,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -8890,7 +10180,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -8907,7 +10197,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -8924,7 +10214,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -8941,7 +10231,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -8958,7 +10248,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -8975,7 +10265,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -8992,7 +10282,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -9009,7 +10299,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -9026,7 +10316,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -9043,7 +10333,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -9060,7 +10350,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -9077,7 +10367,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -9094,7 +10384,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -9111,7 +10401,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -9128,7 +10418,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -9145,7 +10435,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -9162,7 +10452,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -9179,7 +10469,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -9196,7 +10486,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -9213,7 +10503,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -9230,7 +10520,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -9247,7 +10537,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -9264,7 +10554,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -9281,7 +10571,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -9298,7 +10588,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -9315,7 +10605,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -9332,7 +10622,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -9349,7 +10639,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -9366,7 +10656,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -9383,7 +10673,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -9400,7 +10690,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -9417,7 +10707,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -9434,7 +10724,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -9451,7 +10741,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -9468,7 +10758,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -9485,7 +10775,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -9502,7 +10792,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -9519,7 +10809,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -9536,7 +10826,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -9553,7 +10843,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -9570,7 +10860,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -9587,7 +10877,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -9604,7 +10894,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -9621,7 +10911,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -9638,7 +10928,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -9655,7 +10945,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="27"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -9672,7 +10962,7 @@
       <c r="N299" s="15"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="27"/>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
@@ -9689,7 +10979,7 @@
       <c r="N300" s="15"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="27"/>
       <c r="B301" s="5"/>
       <c r="C301" s="13"/>
@@ -9706,7 +10996,7 @@
       <c r="N301" s="15"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="27"/>
       <c r="B302" s="5"/>
       <c r="C302" s="13"/>
@@ -9723,7 +11013,7 @@
       <c r="N302" s="15"/>
       <c r="O302" s="3"/>
     </row>
-    <row r="303" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="27"/>
       <c r="B303" s="5"/>
       <c r="C303" s="13"/>
@@ -9740,7 +11030,7 @@
       <c r="N303" s="15"/>
       <c r="O303" s="3"/>
     </row>
-    <row r="304" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="27"/>
       <c r="B304" s="5"/>
       <c r="C304" s="13"/>
@@ -9758,7 +11048,7 @@
       <c r="O304" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -9766,35 +11056,35 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N305:N1048576 N3:N104">
-    <cfRule type="beginsWith" dxfId="5" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="10" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="10" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="12" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N105:N304">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N105,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N105,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N105,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C304" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C304" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D304" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D304" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/examples/tables/artifact/script/InfiniteTable.xlsx
+++ b/examples/tables/artifact/script/InfiniteTable.xlsx
@@ -20,7 +20,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
     <definedName name="external">'#system'!$J$2:$J$5</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="588">
   <si>
     <t>description</t>
   </si>
@@ -1829,13 +1829,28 @@
   <si>
     <t>assertTextNotContain(locator,text)</t>
   </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2114,8 +2129,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2440,8 +2657,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="67">
+  <borders count="131">
     <border>
       <left/>
       <right/>
@@ -3131,6 +3654,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3138,7 +4313,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="101">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3315,52 +4490,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="33" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="36" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="39" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="42" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="33" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="48" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="39" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="60" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="63" fontId="45" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="66" fontId="46" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="69" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="75" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="66" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4031,7 +5302,7 @@
         <v>347</v>
       </c>
       <c r="L4" t="s">
-        <v>235</v>
+        <v>586</v>
       </c>
       <c r="M4" t="s">
         <v>332</v>
@@ -4067,7 +5338,7 @@
         <v>405</v>
       </c>
       <c r="Z4" t="s">
-        <v>350</v>
+        <v>587</v>
       </c>
       <c r="AA4" t="s">
         <v>170</v>
@@ -4114,7 +5385,7 @@
         <v>348</v>
       </c>
       <c r="L5" t="s">
-        <v>458</v>
+        <v>235</v>
       </c>
       <c r="N5" t="s">
         <v>86</v>
@@ -4185,7 +5456,7 @@
         <v>345</v>
       </c>
       <c r="L6" t="s">
-        <v>71</v>
+        <v>458</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -4247,7 +5518,7 @@
         <v>531</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="N7" t="s">
         <v>312</v>
@@ -4306,7 +5577,7 @@
         <v>325</v>
       </c>
       <c r="L8" t="s">
-        <v>481</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -4362,7 +5633,7 @@
         <v>326</v>
       </c>
       <c r="L9" t="s">
-        <v>79</v>
+        <v>481</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -4406,7 +5677,7 @@
         <v>448</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -4447,7 +5718,7 @@
         <v>319</v>
       </c>
       <c r="L11" t="s">
-        <v>482</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>467</v>
@@ -4485,7 +5756,7 @@
         <v>320</v>
       </c>
       <c r="L12" t="s">
-        <v>386</v>
+        <v>482</v>
       </c>
       <c r="N12" t="s">
         <v>533</v>
@@ -4523,7 +5794,7 @@
         <v>321</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>386</v>
       </c>
       <c r="N13" t="s">
         <v>432</v>
@@ -4558,7 +5829,7 @@
         <v>322</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>468</v>
@@ -4590,7 +5861,7 @@
         <v>261</v>
       </c>
       <c r="L15" t="s">
-        <v>483</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -4622,7 +5893,7 @@
         <v>262</v>
       </c>
       <c r="L16" t="s">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="N16" t="s">
         <v>537</v>
@@ -4654,7 +5925,7 @@
         <v>314</v>
       </c>
       <c r="L17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -4680,7 +5951,7 @@
         <v>88</v>
       </c>
       <c r="L18" t="s">
-        <v>459</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -4697,13 +5968,13 @@
         <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>585</v>
       </c>
       <c r="H19" t="s">
         <v>89</v>
       </c>
       <c r="L19" t="s">
-        <v>82</v>
+        <v>459</v>
       </c>
       <c r="Z19" t="s">
         <v>104</v>
@@ -4717,13 +5988,13 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
       </c>
       <c r="L20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z20" t="s">
         <v>105</v>
@@ -4737,13 +6008,13 @@
         <v>392</v>
       </c>
       <c r="F21" t="s">
-        <v>253</v>
+        <v>60</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
       </c>
       <c r="L21" t="s">
-        <v>376</v>
+        <v>83</v>
       </c>
       <c r="Z21" t="s">
         <v>106</v>
@@ -4757,13 +6028,13 @@
         <v>408</v>
       </c>
       <c r="F22" t="s">
-        <v>534</v>
+        <v>253</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
       </c>
       <c r="L22" t="s">
-        <v>466</v>
+        <v>584</v>
       </c>
       <c r="Z22" t="s">
         <v>490</v>
@@ -4777,13 +6048,13 @@
         <v>409</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>534</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>466</v>
       </c>
       <c r="Z23" t="s">
         <v>107</v>
@@ -4797,13 +6068,13 @@
         <v>353</v>
       </c>
       <c r="F24" t="s">
-        <v>318</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
       </c>
       <c r="L24" t="s">
-        <v>388</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>538</v>
@@ -4817,13 +6088,13 @@
         <v>393</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>318</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
       </c>
       <c r="L25" t="s">
-        <v>520</v>
+        <v>388</v>
       </c>
       <c r="Z25" t="s">
         <v>108</v>
@@ -4837,13 +6108,13 @@
         <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>445</v>
+        <v>62</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
       </c>
       <c r="L26" t="s">
-        <v>84</v>
+        <v>520</v>
       </c>
       <c r="Z26" t="s">
         <v>109</v>
@@ -4857,13 +6128,13 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>222</v>
+        <v>445</v>
       </c>
       <c r="H27" t="s">
         <v>279</v>
       </c>
       <c r="L27" t="s">
-        <v>430</v>
+        <v>84</v>
       </c>
       <c r="Z27" t="s">
         <v>110</v>
@@ -4877,13 +6148,13 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H28" t="s">
         <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>430</v>
       </c>
       <c r="Z28" t="s">
         <v>111</v>
@@ -4894,13 +6165,13 @@
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>464</v>
+        <v>223</v>
       </c>
       <c r="H29" t="s">
         <v>280</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>324</v>
@@ -4911,10 +6182,13 @@
         <v>410</v>
       </c>
       <c r="F30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H30" t="s">
         <v>281</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>112</v>
@@ -4925,7 +6199,7 @@
         <v>224</v>
       </c>
       <c r="F31" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="H31" t="s">
         <v>213</v>
@@ -4936,7 +6210,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>63</v>
+        <v>412</v>
       </c>
       <c r="H32" t="s">
         <v>272</v>
@@ -4947,7 +6221,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
         <v>282</v>
@@ -4958,7 +6232,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
         <v>505</v>
@@ -4969,7 +6243,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
         <v>257</v>
@@ -4980,7 +6254,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
         <v>327</v>
@@ -4991,7 +6265,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
         <v>304</v>
@@ -5002,7 +6276,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
         <v>258</v>
@@ -5013,7 +6287,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
         <v>305</v>
@@ -5023,6 +6297,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>70</v>
+      </c>
       <c r="H40" t="s">
         <v>264</v>
       </c>

--- a/examples/tables/artifact/script/InfiniteTable.xlsx
+++ b/examples/tables/artifact/script/InfiniteTable.xlsx
@@ -20,13 +20,13 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -47,7 +47,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3453" uniqueCount="591">
   <si>
     <t>description</t>
   </si>
@@ -1844,13 +1844,22 @@
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="91" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2331,8 +2340,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2963,8 +3073,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="131">
+  <borders count="163">
     <border>
       <left/>
       <right/>
@@ -4306,6 +4569,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4313,7 +4902,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="117">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4586,52 +5175,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="87" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="90" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="93" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="96" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="102" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="93" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4986,7 +5623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5452,6 +6089,9 @@
       <c r="I6" t="s">
         <v>444</v>
       </c>
+      <c r="J6" t="s">
+        <v>588</v>
+      </c>
       <c r="K6" t="s">
         <v>345</v>
       </c>
@@ -5968,7 +6608,7 @@
         <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>585</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
         <v>89</v>
@@ -5988,7 +6628,7 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
@@ -6008,7 +6648,7 @@
         <v>392</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>253</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
@@ -6028,7 +6668,7 @@
         <v>408</v>
       </c>
       <c r="F22" t="s">
-        <v>253</v>
+        <v>534</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
@@ -6048,7 +6688,7 @@
         <v>409</v>
       </c>
       <c r="F23" t="s">
-        <v>534</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
@@ -6068,7 +6708,7 @@
         <v>353</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>318</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
@@ -6088,7 +6728,7 @@
         <v>393</v>
       </c>
       <c r="F25" t="s">
-        <v>318</v>
+        <v>62</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
@@ -6108,7 +6748,7 @@
         <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>445</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
@@ -6128,7 +6768,7 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>445</v>
+        <v>222</v>
       </c>
       <c r="H27" t="s">
         <v>279</v>
@@ -6148,7 +6788,7 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H28" t="s">
         <v>263</v>
@@ -6165,7 +6805,7 @@
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>223</v>
+        <v>464</v>
       </c>
       <c r="H29" t="s">
         <v>280</v>
@@ -6182,7 +6822,7 @@
         <v>410</v>
       </c>
       <c r="F30" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H30" t="s">
         <v>281</v>
@@ -6199,7 +6839,7 @@
         <v>224</v>
       </c>
       <c r="F31" t="s">
-        <v>465</v>
+        <v>412</v>
       </c>
       <c r="H31" t="s">
         <v>213</v>
@@ -6210,7 +6850,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>412</v>
+        <v>63</v>
       </c>
       <c r="H32" t="s">
         <v>272</v>
@@ -6221,7 +6861,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H33" t="s">
         <v>282</v>
@@ -6232,7 +6872,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H34" t="s">
         <v>505</v>
@@ -6243,7 +6883,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H35" t="s">
         <v>257</v>
@@ -6254,7 +6894,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
         <v>327</v>
@@ -6265,7 +6905,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
         <v>304</v>
@@ -6276,7 +6916,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
         <v>258</v>
@@ -6287,7 +6927,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H39" t="s">
         <v>305</v>
@@ -6297,9 +6937,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>70</v>
-      </c>
       <c r="H40" t="s">
         <v>264</v>
       </c>
@@ -6773,186 +7410,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>439</v>
+        <v>589</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>201</v>
+        <v>590</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>202</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>494</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>579</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>146</v>
+        <v>579</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>379</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>147</v>
+        <v>519</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>148</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>440</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>540</v>
+        <v>440</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>162</v>
+        <v>540</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>167</v>
       </c>
     </row>

--- a/examples/tables/artifact/script/InfiniteTable.xlsx
+++ b/examples/tables/artifact/script/InfiniteTable.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3453" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4018" uniqueCount="591">
   <si>
     <t>description</t>
   </si>
@@ -1859,7 +1859,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="91" x14ac:knownFonts="1">
+  <fonts count="107" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2441,8 +2441,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3226,8 +3327,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="163">
+  <borders count="195">
     <border>
       <left/>
       <right/>
@@ -4895,6 +5149,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4902,7 +5482,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="133">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5223,52 +5803,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="114" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="117" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="120" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="123" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="129" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="120" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="141" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="144" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="147" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="150" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="156" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="147" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/examples/tables/artifact/script/InfiniteTable.xlsx
+++ b/examples/tables/artifact/script/InfiniteTable.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4018" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4583" uniqueCount="591">
   <si>
     <t>description</t>
   </si>
@@ -1859,7 +1859,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="107" x14ac:knownFonts="1">
+  <fonts count="123" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2542,8 +2542,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3480,8 +3581,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="195">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5475,6 +5729,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5482,7 +6062,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="149">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5851,52 +6431,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="141" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="141" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="144" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="174" fillId="144" fontId="93" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="147" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="147" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="150" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="150" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="97" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="156" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="156" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="147" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="147" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="159" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="159" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="168" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="171" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="174" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="177" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="183" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="174" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
